--- a/data/base/excelformatforMultipleUserInput.xlsx
+++ b/data/base/excelformatforMultipleUserInput.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>COMPANYCODE</t>
   </si>
@@ -106,6 +106,60 @@
   </si>
   <si>
     <t>JJJ JJJ</t>
+  </si>
+  <si>
+    <t>MIDDLENAME</t>
+  </si>
+  <si>
+    <t>NICKNAME</t>
+  </si>
+  <si>
+    <t>TIN</t>
+  </si>
+  <si>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>SDF</t>
+  </si>
+  <si>
+    <t>SDFSDF</t>
+  </si>
+  <si>
+    <t>WERW</t>
+  </si>
+  <si>
+    <t>EW</t>
+  </si>
+  <si>
+    <t>DFSD</t>
+  </si>
+  <si>
+    <t>SDFS</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>PID11</t>
+  </si>
+  <si>
+    <t>PID22</t>
+  </si>
+  <si>
+    <t>PID33</t>
+  </si>
+  <si>
+    <t>PID44</t>
+  </si>
+  <si>
+    <t>PID55</t>
+  </si>
+  <si>
+    <t>SSSNUMBER</t>
+  </si>
+  <si>
+    <t>PAGIBIGNUMBER</t>
   </si>
 </sst>
 </file>
@@ -444,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,12 +510,16 @@
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,16 +533,34 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -501,13 +577,25 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -524,13 +612,22 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -547,13 +644,22 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -570,13 +676,22 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>26</v>
       </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -593,10 +708,28 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
